--- a/tables/xlsx/Item/Item.xlsx
+++ b/tables/xlsx/Item/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\Projects\Planetarium\NineChronicles\tables\xlsx\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D95774-98FC-4E74-8635-732DF902C501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F8DF2E-7579-44E0-865F-136803C01262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4365" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="4080" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RequirementSheet" sheetId="3" r:id="rId1"/>
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +67,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -84,12 +110,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,32 +215,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4A34DF5-7E2C-48BE-8EDB-10168561E515}" name="ItemRequirementSheet" displayName="ItemRequirementSheet" ref="A1:B163" totalsRowShown="0">
-  <autoFilter ref="A1:B163" xr:uid="{E4A34DF5-7E2C-48BE-8EDB-10168561E515}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D283BEC7-C70B-4DA6-A012-138764B69AC1}" name="item_id"/>
-    <tableColumn id="2" xr3:uid="{24AE657F-54DA-4EAB-A7C3-0ED2B6315863}" name="level"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A1F8D15-F53D-4393-B8C1-300ECE00859C}" name="ItemConfigForGradeSheet" displayName="ItemConfigForGradeSheet" ref="A1:F6" totalsRowShown="0">
-  <autoFilter ref="A1:F6" xr:uid="{4A1F8D15-F53D-4393-B8C1-300ECE00859C}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AEF07D6D-B864-4BE2-A7AF-47B66D10B81F}" name="id"/>
-    <tableColumn id="2" xr3:uid="{7534AFAC-64B8-4DEB-95F5-2F43FAAD439B}" name="monster_parts_count_for_combination"/>
-    <tableColumn id="3" xr3:uid="{53863F14-24F1-4F00-B9E9-FE2A35271EDD}" name="monster_parts_count_for_combination_with_ncg"/>
-    <tableColumn id="4" xr3:uid="{F5C02710-DFC3-48CF-A8F5-085DE0DFB2F0}" name="random_buff_skill_min_count_for_combination"/>
-    <tableColumn id="5" xr3:uid="{91F80D85-D931-47BE-A84B-860E72701A50}" name="random_buff_skill_max_count_for_combination"/>
-    <tableColumn id="6" xr3:uid="{3453F9EF-4A56-4531-8322-24E3714BBE90}" name="enhancement_limit"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647AAB95-BBCD-496C-A192-30CBEA979EF6}">
   <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B163"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,1314 +493,1311 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>10100000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>10110000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>10111000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>10112000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>10113000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>10114000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>10120000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>10121000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>10122000</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>10123000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>10124000</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="9">
         <v>10130000</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>10131000</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="9">
         <v>10132000</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>10133000</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="9">
         <v>10134000</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="6">
         <v>10130001</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="9">
         <v>10131001</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>10132001</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="9">
         <v>10133001</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>10134001</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="9">
         <v>10140000</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="11">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="6">
         <v>10141000</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="9">
         <v>10142000</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="11">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="6">
         <v>10143000</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="9">
         <v>10144000</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="11">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="6">
         <v>10140001</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="9">
         <v>10141001</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="11">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="6">
         <v>10142001</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="9">
         <v>10143001</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="6">
         <v>10144001</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="9">
         <v>10150000</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="11">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="6">
         <v>10151000</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="8">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="9">
         <v>10152000</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="11">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="6">
         <v>10153000</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="8">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="9">
         <v>10154000</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="11">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="6">
         <v>10150001</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="8">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="9">
         <v>10151001</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="11">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="6">
         <v>10152001</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="8">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="9">
         <v>10153001</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="11">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="6">
         <v>10154001</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="8">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="9">
         <v>10155000</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="11">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="6">
         <v>10200000</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="9">
         <v>10210000</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="6">
         <v>10211000</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="9">
         <v>10212000</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="6">
         <v>10213000</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="9">
         <v>10214000</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="6">
         <v>10220000</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="9">
         <v>10221000</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="6">
         <v>10222000</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="9">
         <v>10223000</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="6">
         <v>10224000</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="9">
         <v>10230000</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="6">
         <v>10231000</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="9">
         <v>10232000</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="6">
         <v>10233000</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="9">
         <v>10234000</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="6">
         <v>10230001</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="8">
         <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="9">
         <v>10231001</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="6">
         <v>10232001</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="9">
         <v>10233001</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="6">
         <v>10234001</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="8">
         <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="9">
         <v>10240000</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="11">
         <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="6">
         <v>10241000</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="8">
         <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="9">
         <v>10242000</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="11">
         <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="6">
         <v>10243000</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="8">
         <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="9">
         <v>10244000</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="11">
         <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="6">
         <v>10240001</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="8">
         <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="9">
         <v>10241001</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="11">
         <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="6">
         <v>10242001</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="8">
         <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="9">
         <v>10243001</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="6">
         <v>10244001</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="9">
         <v>10250000</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="11">
         <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="6">
         <v>10251000</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="8">
         <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="9">
         <v>10252000</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="11">
         <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="6">
         <v>10253000</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="8">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="9">
         <v>10254000</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="11">
         <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="6">
         <v>10250001</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="8">
         <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="9">
         <v>10251001</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="11">
         <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="6">
         <v>10252001</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="8">
         <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="9">
         <v>10253001</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="11">
         <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="6">
         <v>10254001</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="8">
         <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="9">
         <v>10255000</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="11">
         <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="6">
         <v>10310000</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="9">
         <v>10311000</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="6">
         <v>10312000</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="9">
         <v>10313000</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="6">
         <v>10314000</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="9">
         <v>10320000</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="6">
         <v>10321000</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="9">
         <v>10322000</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="6">
         <v>10323000</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="9">
         <v>10324000</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="6">
         <v>10330000</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="9">
         <v>10331000</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="6">
         <v>10332000</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="9">
         <v>10333000</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="6">
         <v>10334000</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="9">
         <v>10340000</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="6">
         <v>10341000</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="8">
         <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="9">
         <v>10342000</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="6">
         <v>10343000</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="9">
         <v>10344000</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="6">
         <v>10350000</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="8">
         <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="9">
         <v>10351000</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="11">
         <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="6">
         <v>10352000</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="8">
         <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="9">
         <v>10353000</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="11">
         <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="6">
         <v>10354000</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="8">
         <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="9">
         <v>10410000</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="6">
         <v>10411000</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="9">
         <v>10412000</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="6">
         <v>10413000</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="9">
         <v>10414000</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="6">
         <v>10420000</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="9">
         <v>10421000</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="6">
         <v>10422000</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="9">
         <v>10423000</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="6">
         <v>10424000</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="9">
         <v>10430000</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="6">
         <v>10431000</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="9">
         <v>10432000</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="6">
         <v>10433000</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="9">
         <v>10434000</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="6">
         <v>10440000</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="9">
         <v>10441000</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="6">
         <v>10442000</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="9">
         <v>10443000</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="11">
         <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="6">
         <v>10444000</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="9">
         <v>10450000</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="6">
         <v>10451000</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="8">
         <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="9">
         <v>10452000</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="6">
         <v>10453000</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="8">
         <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="9">
         <v>10454000</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="11">
         <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="6">
         <v>10510000</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="9">
         <v>10511000</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="6">
         <v>10512000</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="9">
         <v>10513000</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="6">
         <v>10514000</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="9">
         <v>10520000</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="6">
         <v>10521000</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="9">
         <v>10522000</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="6">
         <v>10523000</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="9">
         <v>10524000</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="6">
         <v>10530000</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="9">
         <v>10531000</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="6">
         <v>10532000</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="9">
         <v>10533000</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="6">
         <v>10534000</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="9">
         <v>10540000</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="6">
         <v>10541000</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="8">
         <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="9">
         <v>10542000</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="6">
         <v>10543000</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="9">
         <v>10544000</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="6">
         <v>10550000</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="8">
         <v>21</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="9">
         <v>10551000</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="11">
         <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="6">
         <v>10552000</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="8">
         <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="9">
         <v>10553000</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="11">
         <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="6">
         <v>10554000</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="8">
         <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="9">
         <v>11320000</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="6">
         <v>11420000</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="4">
         <v>11520000</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1724,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC06FF4-5013-4EEE-87F8-D551C323A094}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,130 +1820,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
